--- a/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 21,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 22,58</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 11,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; 6,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 10,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; 8,24</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 27,37</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 29,15</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 12,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,87; 7,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 12,58</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,42; 8,97</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 2,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 2,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 2,83</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,44</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 2,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,26</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 2,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,0</t>
+          <t>-18,73; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 0,0</t>
+          <t>-16,38; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,0</t>
+          <t>-18,73; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 0,0</t>
+          <t>-16,38; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 0,0</t>
+          <t>-21,41; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 0,0</t>
+          <t>-20,83; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 0,0</t>
+          <t>-21,41; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 0,0</t>
+          <t>-20,83; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,58; 21,49</t>
+          <t>2,62; 23,8</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,61; 22,58</t>
+          <t>2,59; 22,43</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 11,06</t>
+          <t>-3,98; 10,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 6,62</t>
+          <t>-19,55; 6,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 10,85</t>
+          <t>-1,17; 11,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,24</t>
+          <t>-17,21; 8,39</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2,65; 27,37</t>
+          <t>2,69; 31,23</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2,68; 29,15</t>
+          <t>2,66; 28,92</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 12,42</t>
+          <t>-3,99; 11,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 7,09</t>
+          <t>-20,07; 7,29</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 12,58</t>
+          <t>-1,07; 12,65</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 8,97</t>
+          <t>-17,72; 9,18</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,86; 7,98</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,79</t>
+          <t>0,86; 7,9</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,35</t>
+          <t>-2,57; 2,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,24</t>
+          <t>-5,73; 2,08</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>-1,24; 3,06</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,83</t>
+          <t>-2,28; 3,04</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,58</t>
+          <t>0,86; 8,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,44</t>
+          <t>0,87; 8,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,43</t>
+          <t>-2,59; 2,5</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,29</t>
+          <t>-5,83; 2,13</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,26</t>
+          <t>-1,24; 3,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,92</t>
+          <t>-2,26; 3,13</t>
         </is>
       </c>
     </row>
